--- a/数据整理/stocks/A股/创业板/300986-志特新材.xlsx
+++ b/数据整理/stocks/A股/创业板/300986-志特新材.xlsx
@@ -1,147 +1,51 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
-  <workbookPr defaultThemeVersion="124226"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="2021-Q2" sheetId="1" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
+  <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="32">
-  <si>
-    <t>基金代码</t>
-  </si>
-  <si>
-    <t>基金名称</t>
-  </si>
-  <si>
-    <t>基金金额</t>
-  </si>
-  <si>
-    <t>股票总仓位</t>
-  </si>
-  <si>
-    <t>仓位占比</t>
-  </si>
-  <si>
-    <t>持有市值(亿元)</t>
-  </si>
-  <si>
-    <t>仓位排名</t>
-  </si>
-  <si>
-    <t>009847</t>
-  </si>
-  <si>
-    <t>009848</t>
-  </si>
-  <si>
-    <t>000714</t>
-  </si>
-  <si>
-    <t>001744</t>
-  </si>
-  <si>
-    <t>002052</t>
-  </si>
-  <si>
-    <t>圆信永丰研究精选混合A</t>
-  </si>
-  <si>
-    <t>圆信永丰研究精选混合C</t>
-  </si>
-  <si>
-    <t>诺安稳健回报灵活配置混合A</t>
-  </si>
-  <si>
-    <t>诺安进取回报灵活配置混合</t>
-  </si>
-  <si>
-    <t>诺安稳健回报灵活配置混合C</t>
-  </si>
-  <si>
-    <t>3.22</t>
-  </si>
-  <si>
-    <t>0.44</t>
-  </si>
-  <si>
-    <t>0.06</t>
-  </si>
-  <si>
-    <t>0.02</t>
-  </si>
-  <si>
-    <t>0.00</t>
-  </si>
-  <si>
-    <t>94.34</t>
-  </si>
-  <si>
-    <t>29.37</t>
-  </si>
-  <si>
-    <t>29.46</t>
-  </si>
-  <si>
-    <t>4.20</t>
-  </si>
-  <si>
-    <t>1.28</t>
-  </si>
-  <si>
-    <t>1.27</t>
-  </si>
-  <si>
-    <t>0.1352</t>
-  </si>
-  <si>
-    <t>0.0185</t>
-  </si>
-  <si>
-    <t>0.0008</t>
-  </si>
-  <si>
-    <t>0.0003</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+  <numFmts count="0"/>
+  <fonts count="3">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <b val="1"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -164,21 +68,97 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+  <cellXfs count="3">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -466,167 +446,567 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:H6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
-      <c r="B1" s="1" t="s">
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>009847</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>圆信永丰研究精选混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>3.22</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.34</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.20</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.1352</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>009848</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>圆信永丰研究精选混合C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.44</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.34</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.20</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0185</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>000714</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>诺安稳健回报灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>29.37</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>1.28</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0008</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>001744</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>诺安进取回报灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>29.46</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>1.27</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0003</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="G1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8">
-      <c r="A2" s="1">
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>002052</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>诺安稳健回报灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>29.37</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>1.28</t>
+        </is>
+      </c>
+      <c r="G6" t="n">
         <v>0</v>
       </c>
-      <c r="B2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D2" t="s">
-        <v>17</v>
-      </c>
-      <c r="E2" t="s">
-        <v>22</v>
-      </c>
-      <c r="F2" t="s">
-        <v>25</v>
-      </c>
-      <c r="G2" t="s">
-        <v>28</v>
-      </c>
-      <c r="H2">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
-      <c r="A3" s="1">
-        <v>1</v>
-      </c>
-      <c r="B3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D3" t="s">
-        <v>18</v>
-      </c>
-      <c r="E3" t="s">
-        <v>22</v>
-      </c>
-      <c r="F3" t="s">
-        <v>25</v>
-      </c>
-      <c r="G3" t="s">
-        <v>29</v>
-      </c>
-      <c r="H3">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
-      <c r="A4" s="1">
-        <v>2</v>
-      </c>
-      <c r="B4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D4" t="s">
-        <v>19</v>
-      </c>
-      <c r="E4" t="s">
-        <v>23</v>
-      </c>
-      <c r="F4" t="s">
-        <v>26</v>
-      </c>
-      <c r="G4" t="s">
-        <v>30</v>
-      </c>
-      <c r="H4">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
-      <c r="A5" s="1">
-        <v>3</v>
-      </c>
-      <c r="B5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C5" t="s">
-        <v>15</v>
-      </c>
-      <c r="D5" t="s">
-        <v>20</v>
-      </c>
-      <c r="E5" t="s">
-        <v>24</v>
-      </c>
-      <c r="F5" t="s">
-        <v>27</v>
-      </c>
-      <c r="G5" t="s">
-        <v>31</v>
-      </c>
-      <c r="H5">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
-      <c r="A6" s="1">
-        <v>4</v>
-      </c>
-      <c r="B6" t="s">
-        <v>11</v>
-      </c>
-      <c r="C6" t="s">
-        <v>16</v>
-      </c>
-      <c r="D6" t="s">
-        <v>21</v>
-      </c>
-      <c r="E6" t="s">
-        <v>23</v>
-      </c>
-      <c r="F6" t="s">
-        <v>26</v>
-      </c>
-      <c r="G6">
-        <v>0</v>
-      </c>
-      <c r="H6">
+      <c r="H6" t="n">
         <v>8</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>000824</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>圆信永丰双红利灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>7.84</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.83</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.85</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.4586</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>501051</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>圆信永丰汇利混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>3.38</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.30</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.60</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1893</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>009847</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>圆信永丰研究精选混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>2.24</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>92.16</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.04</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1129</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>009055</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>圆信永丰大湾区主题混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>1.73</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>91.14</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.51</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0780</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>000825</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>圆信永丰双红利灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.63</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>93.83</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>5.85</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0369</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>009056</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>圆信永丰大湾区主题混合C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>91.14</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.51</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0262</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>009848</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>圆信永丰研究精选混合C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.39</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>92.16</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>5.04</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0197</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/创业板/300986-志特新材.xlsx
+++ b/数据整理/stocks/A股/创业板/300986-志特新材.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1009,4 +1010,72 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>7</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.92</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>5</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.15</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/创业板/300986-志特新材.xlsx
+++ b/数据整理/stocks/A股/创业板/300986-志特新材.xlsx
@@ -8,7 +8,8 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1018,7 +1019,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:H23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1029,17 +1030,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1049,14 +1070,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
+          <t>012930</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>中庚价值先锋股票</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>71.30</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>92.79</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.86</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.7522</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
         <v>7</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.92</v>
       </c>
     </row>
     <row r="3">
@@ -1065,13 +1108,879 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
+          <t>009847</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>圆信永丰研究精选混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>13.18</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>89.82</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.81</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.7658</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>000242</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>景顺长城策略精选</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>19.67</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>89.89</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.08</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.6058</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>162102</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>金鹰中小盘精选混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>4.41</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>77.76</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.16</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1835</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>210009</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>金鹰核心资源混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>4.02</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>90.27</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.10</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.1648</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>001167</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>金鹰科技创新股票</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>3.03</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>91.96</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>5.22</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.1582</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>007775</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>汇安量化先锋混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>4.00</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>93.64</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.87</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.1548</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>530011</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>建信内生动力混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>3.74</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>91.41</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.94</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.1474</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>001825</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>建信中国制造2025股票</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>3.92</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>84.22</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.47</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.1360</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>009055</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>圆信永丰大湾区主题混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>2.19</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>89.61</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>5.02</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.1099</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>010460</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>兴业研究精选混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>3.40</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>90.26</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>2.84</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0966</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>004558</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>汇安丰裕灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>2.02</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>93.67</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.65</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0737</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>001276</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>建信新经济灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>1.66</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>92.93</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.87</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0642</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>003751</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>万家瑞隆混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>90.05</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>2.02</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0606</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>005599</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>汇安量化优选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>1.97</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>94.87</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>2.72</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0536</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>009056</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>圆信永丰大湾区主题混合C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.92</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>89.61</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>5.02</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0462</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>009848</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>圆信永丰研究精选混合C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.62</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>89.82</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>5.81</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0360</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>519097</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>新华中小市值优选混合</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.87</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>65.08</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0261</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>005600</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>汇安量化优选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.63</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>94.87</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>2.72</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0171</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>005161</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>华商上游产业股票</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.29</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>86.74</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>3.33</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0097</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>007776</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>汇安量化先锋混合C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>93.64</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>3.87</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0054</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>004559</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>汇安丰裕灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>93.67</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>3.65</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0004</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>22</v>
+      </c>
+      <c r="D2" t="n">
+        <v>5.67</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>7</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.92</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
           <t>2021-Q2</t>
         </is>
       </c>
-      <c r="C3" t="n">
+      <c r="C4" t="n">
         <v>5</v>
       </c>
-      <c r="D3" t="n">
+      <c r="D4" t="n">
         <v>0.15</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/创业板/300986-志特新材.xlsx
+++ b/数据整理/stocks/A股/创业板/300986-志特新材.xlsx
@@ -9,7 +9,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1911,7 +1912,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1922,17 +1923,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1942,14 +1963,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>22</v>
-      </c>
-      <c r="D2" t="n">
-        <v>5.67</v>
+          <t>012930</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>中庚价值先锋股票</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>54.59</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.46</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.6377</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="3">
@@ -1958,14 +2001,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>7</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.92</v>
+          <t>005599</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>汇安量化优选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.85</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.69</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.31</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0196</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="4">
@@ -1974,13 +2039,211 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
+          <t>007775</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>汇安量化先锋混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.38</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.51</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.30</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0125</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>007776</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>汇安量化先锋混合C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>94.51</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.30</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0036</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>005600</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>汇安量化优选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>93.69</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.31</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0016</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>5</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1.68</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>22</v>
+      </c>
+      <c r="D3" t="n">
+        <v>5.67</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>7</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.92</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
           <t>2021-Q2</t>
         </is>
       </c>
-      <c r="C4" t="n">
+      <c r="C5" t="n">
         <v>5</v>
       </c>
-      <c r="D4" t="n">
+      <c r="D5" t="n">
         <v>0.15</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/创业板/300986-志特新材.xlsx
+++ b/数据整理/stocks/A股/创业板/300986-志特新材.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2158,7 +2159,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2169,17 +2170,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -2189,14 +2210,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
+          <t>012930</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>中庚价值先锋股票</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>50.55</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.73</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.65</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.8561</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
         <v>5</v>
-      </c>
-      <c r="D2" t="n">
-        <v>1.68</v>
       </c>
     </row>
     <row r="3">
@@ -2205,14 +2248,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>22</v>
-      </c>
-      <c r="D3" t="n">
-        <v>5.67</v>
+          <t>550001</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>信诚四季红混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>5.37</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>81.28</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.67</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1434</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="4">
@@ -2221,14 +2286,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>7</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.92</v>
+          <t>000963</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>兴业多策略灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>1.96</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>88.08</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.95</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0774</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="5">
@@ -2237,13 +2324,265 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>011284</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>中信保诚龙腾精选混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>1.30</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>83.48</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.67</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0347</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>006214</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>平安中证500ETF联接A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.65</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>82.73</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.66</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0173</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>006209</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>中信保诚新蓝筹灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.48</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>82.73</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.66</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0128</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>007084</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>天治转型升级混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>93.54</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.32</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0017</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>7</v>
+      </c>
+      <c r="D2" t="n">
+        <v>3.14</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>5</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1.68</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>22</v>
+      </c>
+      <c r="D4" t="n">
+        <v>5.67</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>7</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.92</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2021-Q2</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>5</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>0.15</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/创业板/300986-志特新材.xlsx
+++ b/数据整理/stocks/A股/创业板/300986-志特新材.xlsx
@@ -6,12 +6,12 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -455,241 +455,113 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H6"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
         <is>
           <t>持有市值(亿元)</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="n">
+      <c r="A2" s="2" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>009847</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>圆信永丰研究精选混合A</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>3.22</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>94.34</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>4.20</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.1352</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>8</v>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>7</v>
+      </c>
+      <c r="D2" t="n">
+        <v>3.14</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="1" t="n">
+      <c r="A3" s="2" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>009848</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>圆信永丰研究精选混合C</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>0.44</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>94.34</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>4.20</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.0185</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>8</v>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>5</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1.68</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="1" t="n">
+      <c r="A4" s="2" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>000714</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>诺安稳健回报灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>0.06</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>29.37</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>1.28</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.0008</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>8</v>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>22</v>
+      </c>
+      <c r="D4" t="n">
+        <v>5.67</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="1" t="n">
+      <c r="A5" s="2" t="n">
         <v>3</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>001744</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>诺安进取回报灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>0.02</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>29.46</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>1.27</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.0003</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>8</v>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>7</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.92</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="n">
+      <c r="A6" s="2" t="n">
         <v>4</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>002052</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>诺安稳健回报灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>29.37</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>1.28</t>
-        </is>
-      </c>
-      <c r="G6" t="n">
-        <v>0</v>
-      </c>
-      <c r="H6" t="n">
-        <v>8</v>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>5</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.15</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
@@ -720,7 +592,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金金额</t>
+          <t>基金规模</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -750,36 +622,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>000824</t>
+          <t>012930</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>圆信永丰双红利灵活配置混合A</t>
+          <t>中庚价值先锋股票</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>7.84</t>
+          <t>50.55</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>93.83</t>
+          <t>94.73</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>5.85</t>
+          <t>5.65</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.4586</t>
+          <t>2.8561</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3">
@@ -788,36 +660,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>501051</t>
+          <t>550001</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>圆信永丰汇利混合（LOF）</t>
+          <t>信诚四季红混合</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>3.38</t>
+          <t>5.37</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>93.30</t>
+          <t>81.28</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>5.60</t>
+          <t>2.67</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.1893</t>
+          <t>0.1434</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4">
@@ -826,36 +698,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>009847</t>
+          <t>000963</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>圆信永丰研究精选混合A</t>
+          <t>兴业多策略灵活配置混合</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>2.24</t>
+          <t>1.96</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>92.16</t>
+          <t>88.08</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>5.04</t>
+          <t>3.95</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.1129</t>
+          <t>0.0774</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5">
@@ -864,36 +736,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>009055</t>
+          <t>011284</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>圆信永丰大湾区主题混合A</t>
+          <t>中信保诚龙腾精选混合</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>1.73</t>
+          <t>1.30</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>91.14</t>
+          <t>83.48</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>4.51</t>
+          <t>2.67</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.0780</t>
+          <t>0.0347</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6">
@@ -902,36 +774,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>000825</t>
+          <t>006214</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>圆信永丰双红利灵活配置混合C</t>
+          <t>平安中证500ETF联接A</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>0.63</t>
+          <t>0.65</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>93.83</t>
+          <t>82.73</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>5.85</t>
+          <t>2.66</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.0369</t>
+          <t>0.0173</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="7">
@@ -940,36 +812,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>009056</t>
+          <t>006209</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>圆信永丰大湾区主题混合C</t>
+          <t>中信保诚新蓝筹灵活配置混合</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>0.58</t>
+          <t>0.48</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>91.14</t>
+          <t>82.73</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>4.51</t>
+          <t>2.66</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.0262</t>
+          <t>0.0128</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="8">
@@ -978,32 +850,32 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>009848</t>
+          <t>007084</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>圆信永丰研究精选混合C</t>
+          <t>天治转型升级混合</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>0.39</t>
+          <t>0.05</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>92.16</t>
+          <t>93.54</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>5.04</t>
+          <t>3.32</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>0.0197</t>
+          <t>0.0017</t>
         </is>
       </c>
       <c r="H8" t="n">
@@ -1016,6 +888,252 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>012930</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>中庚价值先锋股票</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>54.59</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.46</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.6377</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>005599</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>汇安量化优选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.85</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.69</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.31</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0196</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>007775</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>汇安量化先锋混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.38</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.51</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.30</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0125</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>007776</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>汇安量化先锋混合C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>94.51</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.30</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0036</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>005600</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>汇安量化优选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>93.69</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.31</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0016</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1900,252 +2018,6 @@
       </c>
       <c r="H23" t="n">
         <v>6</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H6"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>基金规模</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>012930</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>中庚价值先锋股票</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>54.59</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>94.46</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>3.00</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>1.6377</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>005599</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>汇安量化优选灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>0.85</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>93.69</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>2.31</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.0196</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>007775</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>汇安量化先锋混合A</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>0.38</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>94.51</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>3.30</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.0125</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>007776</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>汇安量化先锋混合C</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>0.11</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>94.51</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>3.30</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.0036</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>005600</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>汇安量化优选灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>0.07</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>93.69</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>2.31</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.0016</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -2180,7 +2052,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金规模</t>
+          <t>基金金额</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -2210,36 +2082,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>012930</t>
+          <t>000824</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>中庚价值先锋股票</t>
+          <t>圆信永丰双红利灵活配置混合A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>50.55</t>
+          <t>7.84</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>94.73</t>
+          <t>93.83</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>5.65</t>
+          <t>5.85</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>2.8561</t>
+          <t>0.4586</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3">
@@ -2248,36 +2120,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>550001</t>
+          <t>501051</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>信诚四季红混合</t>
+          <t>圆信永丰汇利混合（LOF）</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>5.37</t>
+          <t>3.38</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>81.28</t>
+          <t>93.30</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>2.67</t>
+          <t>5.60</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.1434</t>
+          <t>0.1893</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4">
@@ -2286,36 +2158,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>000963</t>
+          <t>009847</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>兴业多策略灵活配置混合</t>
+          <t>圆信永丰研究精选混合A</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>1.96</t>
+          <t>2.24</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>88.08</t>
+          <t>92.16</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>3.95</t>
+          <t>5.04</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.0774</t>
+          <t>0.1129</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5">
@@ -2324,36 +2196,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>011284</t>
+          <t>009055</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>中信保诚龙腾精选混合</t>
+          <t>圆信永丰大湾区主题混合A</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>1.30</t>
+          <t>1.73</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>83.48</t>
+          <t>91.14</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>2.67</t>
+          <t>4.51</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.0347</t>
+          <t>0.0780</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6">
@@ -2362,36 +2234,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>006214</t>
+          <t>000825</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>平安中证500ETF联接A</t>
+          <t>圆信永丰双红利灵活配置混合C</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>0.65</t>
+          <t>0.63</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>82.73</t>
+          <t>93.83</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>2.66</t>
+          <t>5.85</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.0173</t>
+          <t>0.0369</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7">
@@ -2400,36 +2272,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>006209</t>
+          <t>009056</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>中信保诚新蓝筹灵活配置混合</t>
+          <t>圆信永丰大湾区主题混合C</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>0.48</t>
+          <t>0.58</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>82.73</t>
+          <t>91.14</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>2.66</t>
+          <t>4.51</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.0128</t>
+          <t>0.0262</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="8">
@@ -2438,32 +2310,32 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>007084</t>
+          <t>009848</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>天治转型升级混合</t>
+          <t>圆信永丰研究精选混合C</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>0.05</t>
+          <t>0.39</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>93.54</t>
+          <t>92.16</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>3.32</t>
+          <t>5.04</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>0.0017</t>
+          <t>0.0197</t>
         </is>
       </c>
       <c r="H8" t="n">
@@ -2481,112 +2353,240 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>日期</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>持有数量(只)</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>持有市值(亿元)</t>
         </is>
       </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="n">
+      <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>7</v>
-      </c>
-      <c r="D2" t="n">
-        <v>3.14</v>
+          <t>009847</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>圆信永丰研究精选混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>3.22</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.34</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.20</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.1352</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="2" t="n">
+      <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>5</v>
-      </c>
-      <c r="D3" t="n">
-        <v>1.68</v>
+          <t>009848</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>圆信永丰研究精选混合C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.44</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.34</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.20</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0185</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="2" t="n">
+      <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>22</v>
-      </c>
-      <c r="D4" t="n">
-        <v>5.67</v>
+          <t>000714</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>诺安稳健回报灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>29.37</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>1.28</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0008</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="2" t="n">
+      <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>7</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0.92</v>
+          <t>001744</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>诺安进取回报灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>29.46</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>1.27</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0003</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="2" t="n">
+      <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>5</v>
-      </c>
-      <c r="D6" t="n">
-        <v>0.15</v>
+          <t>002052</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>诺安稳健回报灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>29.37</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>1.28</t>
+        </is>
+      </c>
+      <c r="G6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H6" t="n">
+        <v>8</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/数据整理/stocks/A股/创业板/300986-志特新材.xlsx
+++ b/数据整理/stocks/A股/创业板/300986-志特新材.xlsx
@@ -7,11 +7,12 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -455,7 +456,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -486,14 +487,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="D2" t="n">
-        <v>3.14</v>
+        <v>5.3</v>
       </c>
     </row>
     <row r="3">
@@ -502,14 +503,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D3" t="n">
-        <v>1.68</v>
+        <v>3.14</v>
       </c>
     </row>
     <row r="4">
@@ -518,14 +519,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>22</v>
+        <v>5</v>
       </c>
       <c r="D4" t="n">
-        <v>5.67</v>
+        <v>1.68</v>
       </c>
     </row>
     <row r="5">
@@ -534,14 +535,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>7</v>
+        <v>22</v>
       </c>
       <c r="D5" t="n">
-        <v>0.92</v>
+        <v>5.67</v>
       </c>
     </row>
     <row r="6">
@@ -550,13 +551,29 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>7</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.92</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>2021-Q2</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C7" t="n">
         <v>5</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D7" t="n">
         <v>0.15</v>
       </c>
     </row>
@@ -566,6 +583,670 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>012930</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>中庚价值先锋股票</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>47.83</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.71</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.75</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.7502</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>920003</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>中金新锐股票A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>17.72</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>89.26</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.86</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.0384</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>519033</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>海富通国策导向混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>15.04</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>91.20</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.74</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.4121</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>920923</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>中金新锐股票C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>3.32</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>89.26</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.86</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1946</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>162102</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>金鹰中小盘精选混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>3.17</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>78.28</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>5.12</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.1623</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>210009</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>金鹰核心资源混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>2.84</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>93.42</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>5.47</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.1553</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>000824</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>圆信永丰双红利灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>4.71</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>93.94</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.24</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.1526</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>001167</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>金鹰科技创新股票</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>2.66</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>94.84</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>5.56</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.1479</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>920002</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>中金精选股票A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>2.95</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>82.28</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.03</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.1189</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>008311</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>圆信永丰优选价值混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>2.29</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>94.30</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.53</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0808</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>519097</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>新华中小市值优选混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.71</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>67.35</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>4.01</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0285</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>210002</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>金鹰红利价值混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>1.19</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>61.62</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2.20</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0262</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>000825</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>圆信永丰双红利灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.48</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>93.94</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.24</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0156</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>016563</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>金鹰红利价值混合C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.34</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>61.62</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>2.20</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0075</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>920922</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>中金精选股票C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>82.28</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>4.03</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0044</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>008312</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>圆信永丰优选价值混合C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>94.30</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>3.53</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0032</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -887,7 +1568,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1133,7 +1814,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2025,7 +2706,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2347,7 +3028,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/数据整理/stocks/A股/创业板/300986-志特新材.xlsx
+++ b/数据整理/stocks/A股/创业板/300986-志特新材.xlsx
@@ -7,12 +7,13 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -456,7 +457,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -487,14 +488,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q3</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="D2" t="n">
-        <v>5.3</v>
+        <v>6.75</v>
       </c>
     </row>
     <row r="3">
@@ -503,14 +504,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="D3" t="n">
-        <v>3.14</v>
+        <v>5.3</v>
       </c>
     </row>
     <row r="4">
@@ -519,14 +520,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D4" t="n">
-        <v>1.68</v>
+        <v>3.14</v>
       </c>
     </row>
     <row r="5">
@@ -535,14 +536,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>22</v>
+        <v>5</v>
       </c>
       <c r="D5" t="n">
-        <v>5.67</v>
+        <v>1.68</v>
       </c>
     </row>
     <row r="6">
@@ -551,14 +552,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>7</v>
+        <v>22</v>
       </c>
       <c r="D6" t="n">
-        <v>0.92</v>
+        <v>5.67</v>
       </c>
     </row>
     <row r="7">
@@ -567,13 +568,29 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>7</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.92</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
           <t>2021-Q2</t>
         </is>
       </c>
-      <c r="C7" t="n">
+      <c r="C8" t="n">
         <v>5</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D8" t="n">
         <v>0.15</v>
       </c>
     </row>
@@ -583,6 +600,784 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H20"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>012930</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>中庚价值先锋股票</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>68.71</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.78</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.39</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>3.0164</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>920003</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>中金新锐股票A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>19.30</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>91.44</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>6.08</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.1734</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>011230</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>创金合信数字经济主题股票C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>27.50</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>90.99</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.32</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.9130</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>011229</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>创金合信数字经济主题股票A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>20.16</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>90.99</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.32</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.6693</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>920923</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>中金新锐股票C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>3.33</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>91.44</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>6.08</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.2025</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>000824</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>圆信永丰双红利灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>4.80</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>94.10</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.17</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.2002</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>920002</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>中金精选股票A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>3.21</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>93.08</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.04</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.1297</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>550001</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>信诚四季红混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>4.65</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>82.79</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.71</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.1260</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>020015</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>国泰区位优势混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>2.05</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>84.45</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>5.11</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.1048</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>008311</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>圆信永丰优选价值混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>1.84</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>94.02</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.02</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0740</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>015594</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>国泰区位优势混合C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.75</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>84.45</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>5.11</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0383</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>011284</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>中信保诚龙腾精选混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>1.08</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>83.70</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2.71</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0293</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>000825</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>圆信永丰双红利灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.48</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>94.10</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>4.17</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0200</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>163818</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>中银中小盘成长混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.77</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>87.05</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>2.32</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0179</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>006209</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>中信保诚新蓝筹灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>81.42</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>2.72</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0141</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>015201</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>创金合信动态平衡混合C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>67.50</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>3.60</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0076</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>015200</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>创金合信动态平衡混合A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>67.50</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>3.60</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0068</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>920922</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>中金精选股票C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>93.08</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>4.04</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0048</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>008312</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>圆信永丰优选价值混合C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>94.02</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>4.02</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0036</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1246,7 +2041,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1568,7 +2363,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1814,7 +2609,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2706,7 +3501,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3028,7 +3823,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
